--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H2">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I2">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J2">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.665097333333333</v>
+        <v>12.52893266666667</v>
       </c>
       <c r="N2">
-        <v>13.995292</v>
+        <v>37.586798</v>
       </c>
       <c r="O2">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="P2">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="Q2">
-        <v>3.745617534160444</v>
+        <v>27.14741148930378</v>
       </c>
       <c r="R2">
-        <v>33.710557807444</v>
+        <v>244.326703403734</v>
       </c>
       <c r="S2">
-        <v>0.003836912616123244</v>
+        <v>0.04266504370426363</v>
       </c>
       <c r="T2">
-        <v>0.003836912616123244</v>
+        <v>0.04266504370426363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H3">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I3">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J3">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.230131</v>
       </c>
       <c r="O3">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="P3">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="Q3">
-        <v>13.17566235006856</v>
+        <v>35.55691612595811</v>
       </c>
       <c r="R3">
-        <v>118.580961150617</v>
+        <v>320.012245133623</v>
       </c>
       <c r="S3">
-        <v>0.01349680383426798</v>
+        <v>0.05588147441241533</v>
       </c>
       <c r="T3">
-        <v>0.01349680383426798</v>
+        <v>0.05588147441241534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H4">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I4">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J4">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.65804266666667</v>
+        <v>20.12267066666667</v>
       </c>
       <c r="N4">
-        <v>52.974128</v>
+        <v>60.368012</v>
       </c>
       <c r="O4">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860792</v>
       </c>
       <c r="P4">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860791</v>
       </c>
       <c r="Q4">
-        <v>14.17768365916622</v>
+        <v>43.60135339422177</v>
       </c>
       <c r="R4">
-        <v>127.599152932496</v>
+        <v>392.4121805479959</v>
       </c>
       <c r="S4">
-        <v>0.01452324825029214</v>
+        <v>0.06852416293400442</v>
       </c>
       <c r="T4">
-        <v>0.01452324825029214</v>
+        <v>0.06852416293400442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H5">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I5">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J5">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.172329</v>
+        <v>24.83812066666667</v>
       </c>
       <c r="N5">
-        <v>54.516987</v>
+        <v>74.51436200000001</v>
       </c>
       <c r="O5">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="P5">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="Q5">
-        <v>14.590605356201</v>
+        <v>53.81868514250511</v>
       </c>
       <c r="R5">
-        <v>131.315448205809</v>
+        <v>484.368166282546</v>
       </c>
       <c r="S5">
-        <v>0.01494623443464609</v>
+        <v>0.08458178617197776</v>
       </c>
       <c r="T5">
-        <v>0.01494623443464609</v>
+        <v>0.08458178617197777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H6">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I6">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J6">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.111344666666667</v>
+        <v>4.617728333333333</v>
       </c>
       <c r="N6">
-        <v>15.334034</v>
+        <v>13.853185</v>
       </c>
       <c r="O6">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="P6">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="Q6">
-        <v>4.103910559337556</v>
+        <v>10.00559062340055</v>
       </c>
       <c r="R6">
-        <v>36.935195034038</v>
+        <v>90.050315610605</v>
       </c>
       <c r="S6">
-        <v>0.004203938618119778</v>
+        <v>0.01572484954606267</v>
       </c>
       <c r="T6">
-        <v>0.004203938618119778</v>
+        <v>0.01572484954606267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H7">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I7">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J7">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.44741733333333</v>
+        <v>32.18817566666667</v>
       </c>
       <c r="N7">
-        <v>40.342252</v>
+        <v>96.564527</v>
       </c>
       <c r="O7">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="P7">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="Q7">
-        <v>10.79696275424044</v>
+        <v>69.74462016527677</v>
       </c>
       <c r="R7">
-        <v>97.17266478816401</v>
+        <v>627.7015814874909</v>
       </c>
       <c r="S7">
-        <v>0.0110601261954108</v>
+        <v>0.1096110864441431</v>
       </c>
       <c r="T7">
-        <v>0.0110601261954108</v>
+        <v>0.1096110864441431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.479788</v>
       </c>
       <c r="I8">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J8">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.665097333333333</v>
+        <v>12.52893266666667</v>
       </c>
       <c r="N8">
-        <v>13.995292</v>
+        <v>37.586798</v>
       </c>
       <c r="O8">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="P8">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="Q8">
-        <v>10.07628057312178</v>
+        <v>27.06160918209156</v>
       </c>
       <c r="R8">
-        <v>90.68652515809599</v>
+        <v>243.554482638824</v>
       </c>
       <c r="S8">
-        <v>0.01032187822221798</v>
+        <v>0.04253019625523231</v>
       </c>
       <c r="T8">
-        <v>0.01032187822221798</v>
+        <v>0.04253019625523232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.479788</v>
       </c>
       <c r="I9">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J9">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>49.230131</v>
       </c>
       <c r="O9">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="P9">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="Q9">
         <v>35.44453467691422</v>
@@ -1013,10 +1013,10 @@
         <v>319.000812092228</v>
       </c>
       <c r="S9">
-        <v>0.03630845408912071</v>
+        <v>0.0557048550158701</v>
       </c>
       <c r="T9">
-        <v>0.03630845408912071</v>
+        <v>0.05570485501587011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.479788</v>
       </c>
       <c r="I10">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J10">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.65804266666667</v>
+        <v>20.12267066666667</v>
       </c>
       <c r="N10">
-        <v>52.974128</v>
+        <v>60.368012</v>
       </c>
       <c r="O10">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860792</v>
       </c>
       <c r="P10">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860791</v>
       </c>
       <c r="Q10">
-        <v>38.14012432498489</v>
+        <v>43.46354663793956</v>
       </c>
       <c r="R10">
-        <v>343.261118924864</v>
+        <v>391.171919741456</v>
       </c>
       <c r="S10">
-        <v>0.03906974560760774</v>
+        <v>0.06830758496369442</v>
       </c>
       <c r="T10">
-        <v>0.03906974560760774</v>
+        <v>0.06830758496369442</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.479788</v>
       </c>
       <c r="I11">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J11">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.172329</v>
+        <v>24.83812066666667</v>
       </c>
       <c r="N11">
-        <v>54.516987</v>
+        <v>74.51436200000001</v>
       </c>
       <c r="O11">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="P11">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="Q11">
-        <v>39.250946462084</v>
+        <v>53.64858541280623</v>
       </c>
       <c r="R11">
-        <v>353.258518158756</v>
+        <v>482.837268715256</v>
       </c>
       <c r="S11">
-        <v>0.04020764274559194</v>
+        <v>0.08431445636027377</v>
       </c>
       <c r="T11">
-        <v>0.04020764274559194</v>
+        <v>0.08431445636027378</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.479788</v>
       </c>
       <c r="I12">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J12">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.111344666666667</v>
+        <v>4.617728333333333</v>
       </c>
       <c r="N12">
-        <v>15.334034</v>
+        <v>13.853185</v>
       </c>
       <c r="O12">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="P12">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="Q12">
-        <v>11.04014327831022</v>
+        <v>9.97396688053111</v>
       </c>
       <c r="R12">
-        <v>99.36128950479201</v>
+        <v>89.76570192478</v>
       </c>
       <c r="S12">
-        <v>0.01130923396263187</v>
+        <v>0.01567514947163205</v>
       </c>
       <c r="T12">
-        <v>0.01130923396263187</v>
+        <v>0.01567514947163205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.479788</v>
       </c>
       <c r="I13">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J13">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.44741733333333</v>
+        <v>32.18817566666667</v>
       </c>
       <c r="N13">
-        <v>40.342252</v>
+        <v>96.564527</v>
       </c>
       <c r="O13">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="P13">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="Q13">
-        <v>29.04547115584178</v>
+        <v>69.52418480891956</v>
       </c>
       <c r="R13">
-        <v>261.409240402576</v>
+        <v>625.717663280276</v>
       </c>
       <c r="S13">
-        <v>0.02975342081851739</v>
+        <v>0.1092646488430241</v>
       </c>
       <c r="T13">
-        <v>0.02975342081851738</v>
+        <v>0.1092646488430241</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H14">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I14">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J14">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.665097333333333</v>
+        <v>12.52893266666667</v>
       </c>
       <c r="N14">
-        <v>13.995292</v>
+        <v>37.586798</v>
       </c>
       <c r="O14">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="P14">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="Q14">
-        <v>46.52581654704222</v>
+        <v>17.80224348936178</v>
       </c>
       <c r="R14">
-        <v>418.73234892338</v>
+        <v>160.220191404256</v>
       </c>
       <c r="S14">
-        <v>0.04765982934901947</v>
+        <v>0.02797811853284145</v>
       </c>
       <c r="T14">
-        <v>0.04765982934901947</v>
+        <v>0.02797811853284145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H15">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I15">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J15">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.230131</v>
       </c>
       <c r="O15">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="P15">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="Q15">
-        <v>163.6601825451628</v>
+        <v>23.31687788555911</v>
       </c>
       <c r="R15">
-        <v>1472.941642906465</v>
+        <v>209.851900970032</v>
       </c>
       <c r="S15">
-        <v>0.1676492096263425</v>
+        <v>0.03664495285034156</v>
       </c>
       <c r="T15">
-        <v>0.1676492096263425</v>
+        <v>0.03664495285034157</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H16">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I16">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J16">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.65804266666667</v>
+        <v>20.12267066666667</v>
       </c>
       <c r="N16">
-        <v>52.974128</v>
+        <v>60.368012</v>
       </c>
       <c r="O16">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860792</v>
       </c>
       <c r="P16">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860791</v>
       </c>
       <c r="Q16">
-        <v>176.1066908119911</v>
+        <v>28.59211493867378</v>
       </c>
       <c r="R16">
-        <v>1584.96021730792</v>
+        <v>257.329034448064</v>
       </c>
       <c r="S16">
-        <v>0.1803990870925104</v>
+        <v>0.0449355487883803</v>
       </c>
       <c r="T16">
-        <v>0.1803990870925104</v>
+        <v>0.0449355487883803</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H17">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I17">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J17">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.172329</v>
+        <v>24.83812066666667</v>
       </c>
       <c r="N17">
-        <v>54.516987</v>
+        <v>74.51436200000001</v>
       </c>
       <c r="O17">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="P17">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="Q17">
-        <v>181.235756700145</v>
+        <v>35.29225383280711</v>
       </c>
       <c r="R17">
-        <v>1631.121810301305</v>
+        <v>317.630284495264</v>
       </c>
       <c r="S17">
-        <v>0.1856531680112651</v>
+        <v>0.05546552947753243</v>
       </c>
       <c r="T17">
-        <v>0.185653168011265</v>
+        <v>0.05546552947753244</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H18">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I18">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J18">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.111344666666667</v>
+        <v>4.617728333333333</v>
       </c>
       <c r="N18">
-        <v>15.334034</v>
+        <v>13.853185</v>
       </c>
       <c r="O18">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="P18">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="Q18">
-        <v>50.97631780816779</v>
+        <v>6.561287090035555</v>
       </c>
       <c r="R18">
-        <v>458.7868602735101</v>
+        <v>59.05158381032</v>
       </c>
       <c r="S18">
-        <v>0.05221880641519037</v>
+        <v>0.01031176031508141</v>
       </c>
       <c r="T18">
-        <v>0.05221880641519037</v>
+        <v>0.01031176031508141</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H19">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I19">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J19">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.44741733333333</v>
+        <v>32.18817566666667</v>
       </c>
       <c r="N19">
-        <v>40.342252</v>
+        <v>96.564527</v>
       </c>
       <c r="O19">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="P19">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="Q19">
-        <v>134.1134015386423</v>
+        <v>45.73587838179378</v>
       </c>
       <c r="R19">
-        <v>1207.02061384778</v>
+        <v>411.622905436144</v>
       </c>
       <c r="S19">
-        <v>0.1373822601111245</v>
+        <v>0.07187879591322913</v>
       </c>
       <c r="T19">
-        <v>0.1373822601111245</v>
+        <v>0.07187879591322913</v>
       </c>
     </row>
   </sheetData>
